--- a/final_data_pipeline/output/311411_elec_options.xlsx
+++ b/final_data_pipeline/output/311411_elec_options.xlsx
@@ -918,7 +918,7 @@
         <v>116</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -1010,7 +1010,7 @@
         <v>116</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1099,7 +1099,7 @@
         <v>116</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1188,7 +1188,7 @@
         <v>116</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -5226,7 +5226,7 @@
         <v>116</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5318,7 +5318,7 @@
         <v>116</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5407,7 +5407,7 @@
         <v>116</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5496,7 +5496,7 @@
         <v>116</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5588,7 +5588,7 @@
         <v>116</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5677,7 +5677,7 @@
         <v>116</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -5766,7 +5766,7 @@
         <v>116</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -5855,7 +5855,7 @@
         <v>116</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -5947,7 +5947,7 @@
         <v>116</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6042,7 +6042,7 @@
         <v>116</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6140,7 +6140,7 @@
         <v>116</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6238,7 +6238,7 @@
         <v>116</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6336,7 +6336,7 @@
         <v>116</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6434,7 +6434,7 @@
         <v>116</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6532,7 +6532,7 @@
         <v>116</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -6630,7 +6630,7 @@
         <v>116</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -6728,7 +6728,7 @@
         <v>116</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -6823,7 +6823,7 @@
         <v>116</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -6918,7 +6918,7 @@
         <v>116</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE68">
         <v>8000</v>
@@ -7013,7 +7013,7 @@
         <v>116</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE69">
         <v>8000</v>
@@ -7108,7 +7108,7 @@
         <v>116</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7197,7 +7197,7 @@
         <v>116</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7292,7 +7292,7 @@
         <v>116</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -7387,7 +7387,7 @@
         <v>116</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7482,7 +7482,7 @@
         <v>116</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -7571,7 +7571,7 @@
         <v>116</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -7666,7 +7666,7 @@
         <v>116</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -7761,7 +7761,7 @@
         <v>116</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -7856,7 +7856,7 @@
         <v>116</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE78">
         <v>8000</v>
@@ -7951,7 +7951,7 @@
         <v>116</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE79">
         <v>8000</v>
@@ -8046,7 +8046,7 @@
         <v>116</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE80">
         <v>8000</v>
@@ -8141,7 +8141,7 @@
         <v>116</v>
       </c>
       <c r="AD81">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE81">
         <v>8000</v>
@@ -8236,7 +8236,7 @@
         <v>116</v>
       </c>
       <c r="AD82">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE82">
         <v>8000</v>
@@ -8331,7 +8331,7 @@
         <v>116</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE83">
         <v>8000</v>
@@ -8426,7 +8426,7 @@
         <v>116</v>
       </c>
       <c r="AD84">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE84">
         <v>8000</v>
@@ -8521,7 +8521,7 @@
         <v>116</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE85">
         <v>8000</v>
@@ -8616,7 +8616,7 @@
         <v>116</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE86">
         <v>8000</v>
@@ -8711,7 +8711,7 @@
         <v>116</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE87">
         <v>8000</v>
@@ -8800,7 +8800,7 @@
         <v>116</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE88">
         <v>8000</v>
@@ -8895,7 +8895,7 @@
         <v>116</v>
       </c>
       <c r="AD89">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE89">
         <v>8000</v>
@@ -8984,7 +8984,7 @@
         <v>116</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE90">
         <v>8000</v>
@@ -9079,7 +9079,7 @@
         <v>116</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE91">
         <v>8000</v>
@@ -9168,7 +9168,7 @@
         <v>116</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9257,7 +9257,7 @@
         <v>116</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9346,7 +9346,7 @@
         <v>116</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9435,7 +9435,7 @@
         <v>116</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9524,7 +9524,7 @@
         <v>116</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9616,7 +9616,7 @@
         <v>116</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -9705,7 +9705,7 @@
         <v>116</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -9797,7 +9797,7 @@
         <v>116</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -9898,7 +9898,7 @@
         <v>116</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -9987,7 +9987,7 @@
         <v>116</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -10082,7 +10082,7 @@
         <v>116</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -10177,7 +10177,7 @@
         <v>116</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10266,7 +10266,7 @@
         <v>116</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10364,7 +10364,7 @@
         <v>116</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -10456,7 +10456,7 @@
         <v>116</v>
       </c>
       <c r="AD106">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AE106">
         <v>8000</v>
@@ -11652,7 +11652,7 @@
         <v>116</v>
       </c>
       <c r="AD119">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE119">
         <v>8000</v>
@@ -11741,7 +11741,7 @@
         <v>116</v>
       </c>
       <c r="AD120">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE120">
         <v>8000</v>
@@ -11833,7 +11833,7 @@
         <v>116</v>
       </c>
       <c r="AD121">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE121">
         <v>8000</v>
@@ -11922,7 +11922,7 @@
         <v>116</v>
       </c>
       <c r="AD122">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE122">
         <v>8000</v>
@@ -12020,7 +12020,7 @@
         <v>116</v>
       </c>
       <c r="AD123">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE123">
         <v>8000</v>
@@ -12109,7 +12109,7 @@
         <v>116</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE124">
         <v>8000</v>
@@ -12204,7 +12204,7 @@
         <v>116</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12296,7 +12296,7 @@
         <v>116</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -12385,7 +12385,7 @@
         <v>116</v>
       </c>
       <c r="AD127">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE127">
         <v>8000</v>
@@ -12474,7 +12474,7 @@
         <v>116</v>
       </c>
       <c r="AD128">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE128">
         <v>8000</v>
@@ -12563,7 +12563,7 @@
         <v>116</v>
       </c>
       <c r="AD129">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE129">
         <v>8000</v>
@@ -12658,7 +12658,7 @@
         <v>116</v>
       </c>
       <c r="AD130">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE130">
         <v>8000</v>
@@ -16795,7 +16795,7 @@
         <v>116</v>
       </c>
       <c r="AD175">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE175">
         <v>8000</v>
@@ -16884,7 +16884,7 @@
         <v>116</v>
       </c>
       <c r="AD176">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE176">
         <v>8000</v>
@@ -16973,7 +16973,7 @@
         <v>116</v>
       </c>
       <c r="AD177">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE177">
         <v>8000</v>
@@ -17065,7 +17065,7 @@
         <v>116</v>
       </c>
       <c r="AD178">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE178">
         <v>8000</v>
@@ -17154,7 +17154,7 @@
         <v>116</v>
       </c>
       <c r="AD179">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE179">
         <v>8000</v>
@@ -17243,7 +17243,7 @@
         <v>116</v>
       </c>
       <c r="AD180">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE180">
         <v>8000</v>
@@ -17332,7 +17332,7 @@
         <v>116</v>
       </c>
       <c r="AD181">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE181">
         <v>8000</v>
@@ -17421,7 +17421,7 @@
         <v>116</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE182">
         <v>8000</v>
@@ -17516,7 +17516,7 @@
         <v>116</v>
       </c>
       <c r="AD183">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE183">
         <v>8000</v>
@@ -17611,7 +17611,7 @@
         <v>116</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE184">
         <v>8000</v>
@@ -17706,7 +17706,7 @@
         <v>116</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE185">
         <v>8000</v>
@@ -17801,7 +17801,7 @@
         <v>116</v>
       </c>
       <c r="AD186">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE186">
         <v>8000</v>
@@ -17896,7 +17896,7 @@
         <v>116</v>
       </c>
       <c r="AD187">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE187">
         <v>8000</v>
@@ -17985,7 +17985,7 @@
         <v>116</v>
       </c>
       <c r="AD188">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE188">
         <v>8000</v>
@@ -18083,7 +18083,7 @@
         <v>116</v>
       </c>
       <c r="AD189">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE189">
         <v>8000</v>
@@ -18181,7 +18181,7 @@
         <v>116</v>
       </c>
       <c r="AD190">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE190">
         <v>8000</v>
@@ -18273,7 +18273,7 @@
         <v>116</v>
       </c>
       <c r="AD191">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE191">
         <v>8000</v>
@@ -18371,7 +18371,7 @@
         <v>116</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE192">
         <v>8000</v>
@@ -18460,7 +18460,7 @@
         <v>116</v>
       </c>
       <c r="AD193">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE193">
         <v>8000</v>
@@ -18555,7 +18555,7 @@
         <v>116</v>
       </c>
       <c r="AD194">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE194">
         <v>8000</v>
@@ -18650,7 +18650,7 @@
         <v>116</v>
       </c>
       <c r="AD195">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE195">
         <v>8000</v>
@@ -18745,7 +18745,7 @@
         <v>116</v>
       </c>
       <c r="AD196">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE196">
         <v>8000</v>
@@ -18840,7 +18840,7 @@
         <v>116</v>
       </c>
       <c r="AD197">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE197">
         <v>8000</v>
@@ -18935,7 +18935,7 @@
         <v>116</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE198">
         <v>8000</v>
@@ -19030,7 +19030,7 @@
         <v>116</v>
       </c>
       <c r="AD199">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE199">
         <v>8000</v>
@@ -19128,7 +19128,7 @@
         <v>116</v>
       </c>
       <c r="AD200">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE200">
         <v>8000</v>
@@ -19223,7 +19223,7 @@
         <v>116</v>
       </c>
       <c r="AD201">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE201">
         <v>8000</v>
@@ -19318,7 +19318,7 @@
         <v>116</v>
       </c>
       <c r="AD202">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE202">
         <v>8000</v>
@@ -19413,7 +19413,7 @@
         <v>116</v>
       </c>
       <c r="AD203">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE203">
         <v>8000</v>
@@ -19502,7 +19502,7 @@
         <v>116</v>
       </c>
       <c r="AD204">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE204">
         <v>8000</v>
@@ -19597,7 +19597,7 @@
         <v>116</v>
       </c>
       <c r="AD205">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE205">
         <v>8000</v>
@@ -19695,7 +19695,7 @@
         <v>116</v>
       </c>
       <c r="AD206">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE206">
         <v>8000</v>
